--- a/food-ordering/public/resources/test.xlsx
+++ b/food-ordering/public/resources/test.xlsx
@@ -18,28 +18,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
-    <t>dish0</t>
+    <t>Teriyaki-Glazed Chicken</t>
   </si>
   <si>
-    <t>type0</t>
+    <t>Chicken</t>
   </si>
   <si>
-    <t>dish1</t>
+    <t>Pappardelle with Italian Meat Sugo</t>
   </si>
   <si>
-    <t>type1</t>
+    <t>Rice</t>
   </si>
   <si>
-    <t>dish2</t>
+    <t xml:space="preserve">Bean soup </t>
   </si>
   <si>
-    <t>type2</t>
+    <t>Soup</t>
   </si>
   <si>
-    <t>dish3</t>
+    <t>Fresh fruit salad</t>
   </si>
   <si>
-    <t>type3</t>
+    <t>Salad</t>
   </si>
 </sst>
 </file>
@@ -47,9 +47,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -68,6 +68,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -91,37 +122,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -214,187 +214,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,145 +513,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -720,33 +720,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>37465</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1704975</xdr:colOff>
+      <xdr:colOff>1437640</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1143000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="a96d652ejw1dun7vuce7jj.jpg"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\lenovo\Desktop\dishes\20160803-1-30-edit.jpg20160803-1-30-edit"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3733165" y="9525"/>
-          <a:ext cx="1667510" cy="1133475"/>
+          <a:off x="3838575" y="9525"/>
+          <a:ext cx="1132840" cy="1133475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -758,33 +759,34 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>65405</xdr:colOff>
+      <xdr:colOff>311785</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>24765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1677670</xdr:colOff>
+      <xdr:colOff>1431290</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1144270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="large_4cvy_323400000c221260"/>
+        <xdr:cNvPr id="3" name="图片 2" descr="C:\Users\lenovo\Desktop\dishes\20151022-26.jpg20151022-26"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3761105" y="1186815"/>
-          <a:ext cx="1612265" cy="1119505"/>
+          <a:off x="3845560" y="1186815"/>
+          <a:ext cx="1119505" cy="1119505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -796,33 +798,34 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>27305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:colOff>1327150</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>983615</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="IMAG0018"/>
+        <xdr:cNvPr id="4" name="图片 3" descr="C:\Users\lenovo\Desktop\dishes\2015-03-16-7847-edit.jpg2015-03-16-7847-edit"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId3"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3746500" y="2370455"/>
-          <a:ext cx="1597025" cy="956310"/>
+          <a:off x="3905250" y="2370455"/>
+          <a:ext cx="955675" cy="956310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -834,33 +837,34 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>321310</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:colOff>1393190</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1090930</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5" descr="h_large_6iXm_1d22000002a11376"/>
+        <xdr:cNvPr id="6" name="图片 5" descr="C:\Users\lenovo\Desktop\dishes\20150619-36-edit.jpg20150619-36-edit"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId4"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3743325" y="3390900"/>
-          <a:ext cx="1619250" cy="1071880"/>
+          <a:off x="3855085" y="3390900"/>
+          <a:ext cx="1071880" cy="1071880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1161,13 +1165,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="33.25" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
     <col min="4" max="4" width="22.375" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
   </cols>
@@ -1180,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" ht="93" customHeight="1" spans="1:3">
@@ -1191,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="81" customHeight="1" spans="1:3">
@@ -1202,7 +1207,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>144</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="90" customHeight="1" spans="1:3">
@@ -1213,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
